--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,3; 83,58</t>
+          <t>74,47; 83,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,24; 63,35</t>
+          <t>52,32; 62,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,51; 88,3</t>
+          <t>80,96; 88,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,75; 60,41</t>
+          <t>50,77; 60,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,96; 85,31</t>
+          <t>79,6; 85,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 60,26</t>
+          <t>52,73; 60,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>84,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,24; 87,62</t>
+          <t>77,86; 88,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,28; 70,6</t>
+          <t>59,65; 71,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,06; 88,69</t>
+          <t>79,27; 88,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,29; 69,86</t>
+          <t>59,42; 69,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,6</t>
+          <t>80,34; 87,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,6; 68,69</t>
+          <t>60,62; 68,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,06; 85,67</t>
+          <t>79,69; 87,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 72,69</t>
+          <t>10,52; 73,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,14; 88,56</t>
+          <t>77,71; 89,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,37; 74,65</t>
+          <t>57,1; 74,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,58; 85,7</t>
+          <t>80,65; 87,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 70,89</t>
+          <t>13,16; 70,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>78,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,11; 82,08</t>
+          <t>73,98; 82,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,24; 74,55</t>
+          <t>65,42; 74,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,39; 88,15</t>
+          <t>82,31; 89,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,44; 70,57</t>
+          <t>62,56; 70,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,8; 84,18</t>
+          <t>79,84; 85,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,14; 71,53</t>
+          <t>65,58; 71,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,31; 87,34</t>
+          <t>77,76; 89,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,65; 76,36</t>
+          <t>61,67; 76,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,28; 93,63</t>
+          <t>86,67; 93,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,73; 75,97</t>
+          <t>34,67; 75,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 90,48</t>
+          <t>85,0; 90,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,69; 73,66</t>
+          <t>45,39; 74,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72,48%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>62,24; 81,03</t>
+          <t>64,21; 84,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,55; 62,42</t>
+          <t>38,79; 64,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,54; 82,54</t>
+          <t>75,05; 85,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,86; 70,41</t>
+          <t>61,59; 70,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,12; 80,57</t>
+          <t>73,98; 83,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,48; 67,01</t>
+          <t>57,41; 67,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,81%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,28; 82,2</t>
+          <t>79,02; 83,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,37; 65,93</t>
+          <t>37,74; 65,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,18; 86,48</t>
+          <t>83,58; 86,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,93; 66,73</t>
+          <t>55,68; 66,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,53; 83,98</t>
+          <t>82,02; 84,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,35; 65,32</t>
+          <t>48,28; 65,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61876</t>
+          <t>139402</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67754</t>
+          <t>161007</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>129630</t>
+          <t>300409</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58368; 64790</t>
+          <t>130222; 146432</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>187256; 227073</t>
+          <t>187531; 225774</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64737; 70128</t>
+          <t>153629; 168081</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>151001; 179727</t>
+          <t>151051; 179758</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>125491; 133888</t>
+          <t>290215; 310775</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>347020; 395291</t>
+          <t>345885; 396581</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37392</t>
+          <t>87079</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53051</t>
+          <t>102057</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90443</t>
+          <t>189136</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34903; 39595</t>
+          <t>80900; 91596</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>190498; 226865</t>
+          <t>191677; 229415</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50786; 55570</t>
+          <t>96148; 107161</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>151551; 178575</t>
+          <t>151894; 177593</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86576; 93391</t>
+          <t>180922; 196525</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>349647; 396296</t>
+          <t>349731; 397298</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67853</t>
+          <t>127474</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28295</t>
+          <t>45809</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96148</t>
+          <t>173284</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64425; 70706</t>
+          <t>120890; 132430</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49373; 343789</t>
+          <t>49741; 345614</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26011; 29859</t>
+          <t>42256; 48709</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55248; 70660</t>
+          <t>54054; 70266</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92508; 99622</t>
+          <t>166211; 179694</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>80060; 402343</t>
+          <t>74686; 401820</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67573</t>
+          <t>141044</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80093</t>
+          <t>161116</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>147667</t>
+          <t>302161</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63916; 70791</t>
+          <t>132161; 148105</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>344961; 394159</t>
+          <t>345881; 396120</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>76793; 83166</t>
+          <t>154008; 167281</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>265028; 299541</t>
+          <t>265577; 300365</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>142309; 152026</t>
+          <t>292010; 311650</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>620910; 681800</t>
+          <t>625110; 682212</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30150</t>
+          <t>61571</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65581</t>
+          <t>112506</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95730</t>
+          <t>174078</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27818; 31841</t>
+          <t>56784; 65190</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>127041; 157365</t>
+          <t>127096; 157502</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63204; 67803</t>
+          <t>107279; 116103</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>146504; 320502</t>
+          <t>146275; 318390</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>92175; 98509</t>
+          <t>167289; 179045</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>274381; 462566</t>
+          <t>285008; 464922</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12556</t>
+          <t>36592</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47324</t>
+          <t>100094</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>59880</t>
+          <t>136685</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10781; 14038</t>
+          <t>31103; 40799</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>57773; 101437</t>
+          <t>63037; 104988</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44126; 50212</t>
+          <t>93308; 105808</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>295970; 336884</t>
+          <t>294677; 337371</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>56366; 62970</t>
+          <t>127823; 144047</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>368439; 429480</t>
+          <t>367966; 431705</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>277400</t>
+          <t>593162</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>342099</t>
+          <t>682590</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>619499</t>
+          <t>1275751</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>270282; 283797</t>
+          <t>577288; 607611</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>766106; 1351609</t>
+          <t>773619; 1351325</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>335552; 348842</t>
+          <t>669146; 695775</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1083603; 1316344</t>
+          <t>1098265; 1319372</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>610373; 628680</t>
+          <t>1255899; 1296590</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1944982; 2627769</t>
+          <t>1941950; 2618713</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>59,36%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>61,88%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>79,72%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>57,69%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>61,88%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>56,74%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57,81%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>84,85%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>55,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,81%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>58,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59,9%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>82,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>56,78%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>59,9%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>54,04; 64,63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57,73; 66,56</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>74,47; 83,74</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>52,32; 62,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>57,73; 66,56</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>51,87; 61,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53,06; 62,31</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>80,96; 88,58</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>50,77; 60,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>53,06; 62,31</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>54,35; 61,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56,42; 63,24</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>79,6; 85,24</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>52,73; 60,46</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>56,42; 63,24</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>67,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>68,4%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>83,81%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>65,31%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>68,4%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>63,84%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>84,15%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>64,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62,77%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>65,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>83,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>65,36%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>61,5; 72,6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63,09; 73,31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>77,86; 88,16</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>59,65; 71,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>63,09; 73,31</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>58,93; 68,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57,8; 67,93</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>79,27; 88,35</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>59,42; 69,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>57,8; 67,93</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>61,18; 69,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61,32; 68,64</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>80,34; 87,27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>60,62; 68,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>61,32; 68,64</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>70,3%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64,57%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>84,03%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>34,12%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>64,57%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>65,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58,97%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>84,25%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>66,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>58,97%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>68,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62,81%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>84,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>39,59%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>64,33; 76,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58,35; 69,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>79,69; 87,29</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10,52; 73,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>58,35; 69,66</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>55,98; 73,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50,88; 67,45</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>77,71; 89,58</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>57,1; 74,23</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>50,88; 67,45</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>63,92; 74,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58,1; 67,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>80,65; 87,2</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,16; 70,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>58,1; 67,47</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>71,67%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65,78%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>78,95%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>70,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>65,78%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>68,11%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>86,11%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>66,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>70,09%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>82,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>68,67%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>64,01%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>67,48; 76,06</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61,5; 70,01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>73,98; 82,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>65,42; 74,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>61,5; 70,01</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>64,04; 71,76</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57,79; 66,74</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>82,31; 89,41</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>62,56; 70,76</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>57,79; 66,74</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>67,14; 72,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60,59; 66,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>79,84; 85,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>65,58; 71,57</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>60,59; 66,96</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>70,6%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>84,32%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>69,5%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>66,01%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>75,99%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>71,66%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>90,89%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>62,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>71,66%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68,87%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>88,45%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>64,56%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>68,87%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>63,19; 76,97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60,25; 72,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>77,76; 89,27</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>61,67; 76,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>60,25; 72,21</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>71,99; 79,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65,54; 77,55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>86,67; 93,8</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>34,67; 75,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>65,54; 77,55</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>70,59; 77,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64,34; 73,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>85,0; 90,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45,39; 74,04</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>64,34; 73,11</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67,05%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>75,54%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>51,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>67,05%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>80,5%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,4%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>93,4%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>64,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>79,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>62,53%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>81,27%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>42,77; 66,43</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35,12; 87,09</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>64,21; 84,23</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>38,79; 64,6</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>35,12; 87,09</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>62,46; 71,3</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>61,72; 100,0</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>75,05; 85,1</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>61,59; 70,52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>61,72; 100,0</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>59,51; 68,31</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62,16; 92,05</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>73,98; 83,37</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>57,41; 67,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>62,16; 92,05</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>66,77%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>65,07%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>81,19%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>57,34%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>65,07%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62,64%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>85,26%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>63,73%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>62,64%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>66,84%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>83,32%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>60,47%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>63,89%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>64,33; 69,21</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62,8; 67,33</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>79,02; 83,17</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>37,74; 65,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>62,8; 67,33</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>65,12; 68,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>60,12; 65,03</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>83,58; 86,9</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>55,68; 66,88</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>60,12; 65,03</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>65,34; 68,48</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>62,23; 65,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>82,02; 84,68</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>48,28; 65,1</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>62,23; 65,49</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>371</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>424</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>795</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>552</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>229776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>179115</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>139402</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>206798</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>179115</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>185112</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>158053</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>161007</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>165648</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>158053</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>414887</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>337168</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>300409</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>372446</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>337168</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>209183; 250208</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>167110; 192672</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>130222; 146432</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>187531; 225774</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>167110; 192672</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>169213; 200456</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>145064; 170362</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>153629; 168081</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>151051; 179758</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>145064; 170362</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>387707; 439847</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>317537; 355936</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>290215; 310775</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>345885; 396581</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>317537; 355936</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>224</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>318</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>542</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>449</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>228924</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>130628</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>87079</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>209859</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>130628</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>179956</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>141348</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>102057</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>164822</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>141348</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>408880</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>271976</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>189136</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>374680</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>271976</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>210120; 248071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>120477; 139994</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>80900; 91596</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>191677; 229415</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>120477; 139994</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>166119; 194151</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>130152; 152974</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>96148; 107161</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>151894; 177593</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>130152; 152974</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>381532; 430976</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>255160; 285642</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>180922; 196525</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>349731; 397298</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>255160; 285642</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>166</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>564</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>292</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>180571</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>112675</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>127474</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>161363</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>112675</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>70885</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47182</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>45809</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>63328</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>47182</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>251456</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>173284</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>224692</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>159857</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>165260; 195383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>101814; 121551</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>120890; 132430</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>49741; 345614</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>101814; 121551</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>60661; 79293</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40709; 53962</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>42256; 48709</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>54054; 70266</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>40709; 53962</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>233460; 270648</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147861; 171725</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>166211; 179694</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>74686; 401820</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>147861; 171725</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>402</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>354</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>476</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>327</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>878</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>868</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>681</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>431882</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196131</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>141044</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>371116</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>196131</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>328341</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>191428</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>161116</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>283447</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>191428</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>760224</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>387558</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>302161</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>654564</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>387558</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>406642; 458366</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>183370; 208748</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>132161; 148105</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>345881; 396120</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>183370; 208748</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>308734; 345939</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>177598; 205085</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>154008; 167281</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>265577; 300365</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>177598; 205085</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>728248; 788572</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>366875; 405457</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>292010; 311650</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>625110; 682212</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>366875; 405457</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>182</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>368</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>439</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>550</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>604</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>338</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>174069</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>96805</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>61571</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>143234</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>96805</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>306256</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>107816</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>112506</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>262153</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>107816</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>480325</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>204620</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>174078</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>405387</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>204620</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>155783; 189764</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>88347; 105889</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>56784; 65190</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>127096; 157502</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>88347; 105889</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>290149; 320238</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98610; 116673</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>107279; 116103</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>146275; 318390</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>98610; 116673</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>458515; 504149</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>191160; 217208</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>167289; 179045</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>285008; 464922</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>191160; 217208</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>285</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>363</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>529</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>89968</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6268</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>36592</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>83093</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6268</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>360273</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10240</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>100094</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>317692</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>10240</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>450241</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16508</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>136685</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>400784</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>16508</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>70572; 109598</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3283; 8141</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>31103; 40799</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>63037; 104988</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3283; 8141</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>335343; 382778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6766; 10963</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>93308; 105808</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>294677; 337371</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6766; 10963</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>417692; 479423</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>12626; 18697</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>127823; 144047</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>367966; 431705</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>12626; 18697</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>1655</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1274</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1245</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>2037</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>1092</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>3269</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>3692</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3269</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2337</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>1335191</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>721622</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>593162</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1175464</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>721622</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>1430824</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>656066</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>682590</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1257090</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>656066</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>2766015</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1377688</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>1275751</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>2432554</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1377688</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1286568; 1383964</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>696536; 746774</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>577288; 607611</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>773619; 1351325</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>696536; 746774</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>1392513; 1474908</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>629596; 681035</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>669146; 695775</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1098265; 1319372</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>629596; 681035</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>2704030; 2834086</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1341821; 1412265</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>1255899; 1296590</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1941950; 2618713</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1341821; 1412265</t>
         </is>
       </c>
     </row>
